--- a/Lab_3/Step2/Graphs/Βιβλίο1.xlsx
+++ b/Lab_3/Step2/Graphs/Βιβλίο1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="12615"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28710" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="2">
   <si>
     <t>Area</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31:O35"/>
+    <sheetView tabSelected="1" topLeftCell="O13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,9 +407,11 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" thickBot="1">
+    <row r="1" spans="1:19" ht="35.25" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +436,14 @@
       <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="17.25">
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -472,8 +480,17 @@
       <c r="O2" s="3">
         <v>1.91025</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.25">
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1">
+        <v>28.721</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3.1138599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -510,8 +527,17 @@
       <c r="O3" s="3">
         <v>3.07152</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="17.25">
+      <c r="Q3">
+        <v>64</v>
+      </c>
+      <c r="R3" s="1">
+        <v>24.8035</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5.52719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.25">
       <c r="A4">
         <v>128</v>
       </c>
@@ -548,9 +574,18 @@
       <c r="O4" s="3">
         <v>7.9987300000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q4">
+        <v>128</v>
+      </c>
+      <c r="R4" s="1">
+        <v>39.510800000000003</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12.4778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:19" ht="35.25" thickBot="1">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +610,14 @@
       <c r="O6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17.25">
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -613,8 +654,17 @@
       <c r="O7" s="3">
         <v>2.9681899999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="17.25">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>18.609400000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.36266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -651,8 +701,17 @@
       <c r="O8" s="3">
         <v>3.3154499999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17.25">
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>19.728200000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4.1428900000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -689,8 +748,17 @@
       <c r="O9" s="3">
         <v>3.59917</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" thickBot="1">
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>16.3691</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4.1409700000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" thickBot="1">
       <c r="A10">
         <v>16</v>
       </c>
@@ -727,8 +795,17 @@
       <c r="O10" s="3">
         <v>4.2854900000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1">
+        <v>17.126300000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4.70594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="35.25" thickBot="1">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,8 +830,14 @@
       <c r="O11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="17.25">
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -791,8 +874,17 @@
       <c r="O12" s="3">
         <v>2.9492699999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17.25">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>19.5181</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5.7052699999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -829,8 +921,17 @@
       <c r="O13" s="3">
         <v>3.3234400000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="17.25">
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>18.4849</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5.4020799999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -867,8 +968,17 @@
       <c r="O14" s="3">
         <v>3.6695600000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="18" thickBot="1">
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14" s="1">
+        <v>18.758199999999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5.55436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" thickBot="1">
       <c r="A15">
         <v>16</v>
       </c>
@@ -905,8 +1015,17 @@
       <c r="O15" s="3">
         <v>4.4860800000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q15">
+        <v>16</v>
+      </c>
+      <c r="R15" s="1">
+        <v>20.303899999999999</v>
+      </c>
+      <c r="S15" s="1">
+        <v>6.2238300000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="35.25" thickBot="1">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +1050,14 @@
       <c r="O16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="17.25">
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -969,8 +1094,17 @@
       <c r="O17" s="3">
         <v>3.07152</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="17.25">
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>24.3584</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5.52433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1007,8 +1141,17 @@
       <c r="O18" s="3">
         <v>3.0731099999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="17.25">
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>24.646999999999998</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5.5259200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1045,8 +1188,17 @@
       <c r="O19" s="3">
         <v>3.0743800000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1">
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19" s="1">
+        <v>24.8035</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5.52719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1083,8 +1235,17 @@
       <c r="O20" s="3">
         <v>3.0762800000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q20">
+        <v>16</v>
+      </c>
+      <c r="R20" s="1">
+        <v>24.6343</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5.5290900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="35.25" thickBot="1">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,8 +1271,14 @@
       <c r="O21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.25">
+      <c r="R21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="17.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1149,8 +1316,17 @@
       <c r="O22" s="3">
         <v>2.8431600000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.25">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>15.6469</v>
+      </c>
+      <c r="S22" s="1">
+        <v>5.2959699999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="17.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1188,8 +1364,17 @@
       <c r="O23" s="3">
         <v>2.9492699999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="17.25">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>18.4849</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5.4020799999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="17.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1227,9 +1412,18 @@
       <c r="O24" s="3">
         <v>3.0743800000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>24.8035</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5.52719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:19" ht="35.25" thickBot="1">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1448,14 @@
       <c r="O26" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="17.25">
+      <c r="R26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="17.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -1292,8 +1492,17 @@
       <c r="O27" s="3">
         <v>2.9681899999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="17.25">
+      <c r="Q27">
+        <v>16</v>
+      </c>
+      <c r="R27" s="3">
+        <v>13.2638</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2.9681899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="17.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1330,8 +1539,17 @@
       <c r="O28" s="3">
         <v>2.98366</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="17.25">
+      <c r="Q28">
+        <v>32</v>
+      </c>
+      <c r="R28" s="3">
+        <v>13.323499999999999</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2.98366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25">
       <c r="A29">
         <v>64</v>
       </c>
@@ -1368,8 +1586,17 @@
       <c r="O29" s="3">
         <v>3.8656700000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="18" thickBot="1">
+      <c r="Q29">
+        <v>64</v>
+      </c>
+      <c r="R29" s="3">
+        <v>15.954499999999999</v>
+      </c>
+      <c r="S29" s="3">
+        <v>3.8656700000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1">
       <c r="A30">
         <v>128</v>
       </c>
@@ -1406,8 +1633,17 @@
       <c r="O30" s="3">
         <v>4.36266</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="35.25" thickBot="1">
+      <c r="Q30">
+        <v>128</v>
+      </c>
+      <c r="R30" s="3">
+        <v>18.609400000000001</v>
+      </c>
+      <c r="S30" s="3">
+        <v>4.36266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="35.25" thickBot="1">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,8 +1668,14 @@
       <c r="O31" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="17.25">
+      <c r="R31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1470,8 +1712,17 @@
       <c r="O32" s="3">
         <v>2.9681899999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="17.25">
+      <c r="Q32">
+        <v>16</v>
+      </c>
+      <c r="R32" s="1">
+        <v>17.071999999999999</v>
+      </c>
+      <c r="S32" s="1">
+        <v>4.6870200000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1508,8 +1759,17 @@
       <c r="O33" s="3">
         <v>2.98366</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="17.25">
+      <c r="Q33">
+        <v>32</v>
+      </c>
+      <c r="R33" s="1">
+        <v>17.126300000000001</v>
+      </c>
+      <c r="S33" s="1">
+        <v>4.70594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17.25">
       <c r="A34">
         <v>64</v>
       </c>
@@ -1546,8 +1806,17 @@
       <c r="O34" s="3">
         <v>3.8656700000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="18" thickBot="1">
+      <c r="Q34">
+        <v>64</v>
+      </c>
+      <c r="R34" s="1">
+        <v>19.5181</v>
+      </c>
+      <c r="S34" s="1">
+        <v>5.7052699999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1">
       <c r="A35">
         <v>128</v>
       </c>
@@ -1584,20 +1853,29 @@
       <c r="O35" s="3">
         <v>4.36266</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="18" thickBot="1">
+      <c r="Q35">
+        <v>128</v>
+      </c>
+      <c r="R35" s="1">
+        <v>21.931699999999999</v>
+      </c>
+      <c r="S35" s="1">
+        <v>6.2452199999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" thickBot="1">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="17.25">
+    <row r="37" spans="1:19" ht="17.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="17.25">
+    <row r="38" spans="1:19" ht="17.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="17.25">
+    <row r="39" spans="1:19" ht="17.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
